--- a/TANI 595_details.xlsx
+++ b/TANI 595_details.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>HSN/SAC code</t>
+          <t>HSN/SAC</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RICE</t>
+          <t xml:space="preserve"> RICE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -563,10 +563,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>23AACCA8432H1ZY</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>10063090</t>
+        </is>
+      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>AVENUE SUPERMARTS LTD. (INDORE) AVENUE SUPERMARTS LTD. (INDORE)
@@ -599,7 +603,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RICE</t>
+          <t xml:space="preserve"> RICE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -644,10 +648,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>23AACCA8432H1ZY</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>10063090</t>
+        </is>
+      </c>
       <c r="L3" t="inlineStr">
         <is>
           <t>AVENUE SUPERMARTS LTD. (INDORE) AVENUE SUPERMARTS LTD. (INDORE)

--- a/TANI 595_details.xlsx
+++ b/TANI 595_details.xlsx
@@ -461,32 +461,32 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>HSN/SAC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Company Name</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Invoice No</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Date of Invoice</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>GSTIN NO</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>GSTIN</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>HSN/SAC</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -518,7 +518,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RICE</t>
+          <t>RICE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -533,77 +533,50 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.00</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5,200</t>
+          <t>441</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>10063090</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>TANISHQ AGRO INDUSTRIES</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>01-08-2023</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>27AAKPW5971G1Z1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>23AACCA8432H1ZY</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>10063090</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>AVENUE SUPERMARTS LTD. (INDORE) AVENUE SUPERMARTS LTD. (INDORE)
-LAND BEARING, SURVEY NO 2, PLOY NO 13, LAND BEARING, SURVEY NO 2, PLOY NO 13,
-EMPIRE LOGIPARK, AB ROAD, TEHSIL SANWER, EMPIRE LOGIPARK, AB ROAD, TEHSIL SANWER,
-VILLAGE BARODA ARJUN, DIST- INDORE VILLAGE BARODA ARJUN, DIST- INDORE</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>SINGH TRANSPORT</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>NL01AB4849</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>9380MP41</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>7772825143</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> RICE</t>
+          <t>RICE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -618,72 +591,45 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5,700</t>
+          <t>441</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>10063090</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>TANISHQ AGRO INDUSTRIES</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>01-08-2023</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>27AAKPW5971G1Z1</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>23AACCA8432H1ZY</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>10063090</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>AVENUE SUPERMARTS LTD. (INDORE) AVENUE SUPERMARTS LTD. (INDORE)
-LAND BEARING, SURVEY NO 2, PLOY NO 13, LAND BEARING, SURVEY NO 2, PLOY NO 13,
-EMPIRE LOGIPARK, AB ROAD, TEHSIL SANWER, EMPIRE LOGIPARK, AB ROAD, TEHSIL SANWER,
-VILLAGE BARODA ARJUN, DIST- INDORE VILLAGE BARODA ARJUN, DIST- INDORE</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>SINGH TRANSPORT</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>NL01AB4849</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>9380MP41</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>7772825143</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TANI 595_details.xlsx
+++ b/TANI 595_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,75 +441,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>HSN/SAC</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Bags</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Pack</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Quintal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Rate</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>HSN/SAC</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Company Name</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Invoice No</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Date of Invoice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>GSTIN NO</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>GSTIN</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Shipped to</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Transport</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Vehicle No</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Licence No</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Mobile No</t>
         </is>
@@ -523,55 +528,85 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>10063090</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>75</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.400</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>30.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10063090</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
+          <t>5200</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>156000</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>TANISHQ AGRO INDUSTRIES</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>01-08-2023</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>27AAKPW5971G1Z1</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>23AACCA8432H1ZY</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>AVENUE SUPERMARTS LTD. (INDORE) AVENUE SUPERMARTS LTD. (INDORE)
+LAND BEARING, SURVEY NO 2, PLOY NO 13, LAND BEARING, SURVEY NO 2, PLOY NO 13,
+EMPIRE LOGIPARK, AB ROAD, TEHSIL SANWER, EMPIRE LOGIPARK, AB ROAD, TEHSIL SANWER,
+VILLAGE BARODA ARJUN, DIST- INDORE VILLAGE BARODA ARJUN, DIST- INDORE</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>SINGH TRANSPORT</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NL01AB4849</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>9380MP41</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>7772825143</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -581,55 +616,85 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>10063090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.400</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10063090</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+          <t>5700</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>57000</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>TANISHQ AGRO INDUSTRIES</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>595</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>01-08-2023</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>27AAKPW5971G1Z1</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>23AACCA8432H1ZY</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>AVENUE SUPERMARTS LTD. (INDORE) AVENUE SUPERMARTS LTD. (INDORE)
+LAND BEARING, SURVEY NO 2, PLOY NO 13, LAND BEARING, SURVEY NO 2, PLOY NO 13,
+EMPIRE LOGIPARK, AB ROAD, TEHSIL SANWER, EMPIRE LOGIPARK, AB ROAD, TEHSIL SANWER,
+VILLAGE BARODA ARJUN, DIST- INDORE VILLAGE BARODA ARJUN, DIST- INDORE</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>SINGH TRANSPORT</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NL01AB4849</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>9380MP41</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>7772825143</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/TANI 595_details.xlsx
+++ b/TANI 595_details.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,145 +441,192 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Bags</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Quintal</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rate</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Invoice No</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Date of Invoice</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>GSTIN NO</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FSSAI</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PAN NO</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>TAN NO</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Place of Supply</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Station</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>GSTIN</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>HSN/SAC</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Bags</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Pack</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Quintal</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Rate</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Company Name</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Invoice No</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Date of Invoice</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>GSTIN NO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>GSTIN</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Shipped to</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Transport</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Vehicle No</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Licence No</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Mobile No</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>STD</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RICE</t>
+          <t xml:space="preserve"> RICE</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0.400</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5,200</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TANISHQ AGRO INDUSTRIES</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>27AAKPW5971G1Z1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>11518060000388</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>AAKPW5971G</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>NGPS0-3447D</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh (23)</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>INDORE</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>23AACCA8432H1ZY</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
           <t>10063090</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>30.00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5200</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>156000</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TANISHQ AGRO INDUSTRIES</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>01-08-2023</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>27AAKPW5971G1Z1</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>23AACCA8432H1ZY</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>AVENUE SUPERMARTS LTD. (INDORE) AVENUE SUPERMARTS LTD. (INDORE)
 LAND BEARING, SURVEY NO 2, PLOY NO 13, LAND BEARING, SURVEY NO 2, PLOY NO 13,
@@ -587,87 +634,114 @@
 VILLAGE BARODA ARJUN, DIST- INDORE VILLAGE BARODA ARJUN, DIST- INDORE</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>SINGH TRANSPORT</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>NL01AB4849</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>9380MP41</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>7772825143</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>07174-220370</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RICE</t>
+          <t xml:space="preserve"> RICE</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0.400</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5,700</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TANISHQ AGRO INDUSTRIES</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>01-08-2023</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>27AAKPW5971G1Z1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>11518060000388</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>AAKPW5971G</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>NGPS0-3447D</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Madhya Pradesh (23)</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>INDORE</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>23AACCA8432H1ZY</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
           <t>10063090</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.400</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5700</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>57000</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TANISHQ AGRO INDUSTRIES</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>595</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>01-08-2023</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>27AAKPW5971G1Z1</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>23AACCA8432H1ZY</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>AVENUE SUPERMARTS LTD. (INDORE) AVENUE SUPERMARTS LTD. (INDORE)
 LAND BEARING, SURVEY NO 2, PLOY NO 13, LAND BEARING, SURVEY NO 2, PLOY NO 13,
@@ -675,24 +749,29 @@
 VILLAGE BARODA ARJUN, DIST- INDORE VILLAGE BARODA ARJUN, DIST- INDORE</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>SINGH TRANSPORT</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>NL01AB4849</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>9380MP41</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>7772825143</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>07174-220370</t>
         </is>
       </c>
     </row>
